--- a/biology/Zoologie/Cepora_perimale/Cepora_perimale.xlsx
+++ b/biology/Zoologie/Cepora_perimale/Cepora_perimale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cepora perimale est une espèce d'insecte lépidoptère de la famille des Pieridae, de la sous-famille des Pierinae et du genre Cepora.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cepora perimale a été nommé par Donovan en 1805.
-Nom vernaculaire
-Cepora perimale se nomme Caper Gull en anglais
-Sous-espèces
-Cepora perimale perimale présent en Australie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepora perimale a été nommé par Donovan en 1805.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepora perimale se nomme Caper Gull en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cepora perimale perimale présent en Australie.
 Cepora perimale acrisa Boisduval; présent en Nouvelle-Calédonie
 Cepora perimale agnata Grose-Smith;
 Cepora perimale babberica Fruhstorfer;
@@ -539,73 +623,7 @@
 Cepora perimale radiata Howarth
 Cepora perimale scyllara (Macleay, 1826) présent en Australie.
 Cepora perimale wallaceana (C. &amp; R. Felder, 1865)
-Cepora perimale wetterensis Grose-Smith[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cepora_perimale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon de taille moyenne avec un envergure d'environ 40 mm, de couleur blanc verdâtre avec des veines marquées et une large bordure marron à noire aux antérieures coupée d'une ligne submarginale de points blancs.
-Le revers des antérieures est blanc, celui des postérieures est jaune, avec la même ornementation que sur la face antérieure. Durant la saison sèche les postérieures peuvent être très largement marron[2].
-Chenille
-La chenille est verte avec des poils blancs[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cepora_perimale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de la chenille sont des Capparis dont Capparis mitchelli, Capparis canescens et  Capparis sepiara[1],[3].
-</t>
+Cepora perimale wetterensis Grose-Smith.</t>
         </is>
       </c>
     </row>
@@ -630,17 +648,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de taille moyenne avec un envergure d'environ 40 mm, de couleur blanc verdâtre avec des veines marquées et une large bordure marron à noire aux antérieures coupée d'une ligne submarginale de points blancs.
+Le revers des antérieures est blanc, celui des postérieures est jaune, avec la même ornementation que sur la face antérieure. Durant la saison sèche les postérieures peuvent être très largement marron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte avec des poils blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Capparis dont Capparis mitchelli, Capparis canescens et  Capparis sepiara,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Océanie de l'Indonésie aux Fidji, en Papouasie-Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie[1],[2],[3].
-Biotope
-Il réside près des côtes et des bassins de drainage en Australie et dans la forêt humide en Nouvelle-Calédonie[3],[4]. 
-Protection
-Philatélie
-Cepora perimale a fait l'objet de l'émission d'un timbre des îles Norfolk et d'un timbre australien[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Océanie de l'Indonésie aux Fidji, en Papouasie-Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside près des côtes et des bassins de drainage en Australie et dans la forêt humide en Nouvelle-Calédonie,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cepora_perimale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cepora perimale a fait l'objet de l'émission d'un timbre des îles Norfolk et d'un timbre australien.
 </t>
         </is>
       </c>
